--- a/HydroServerTools/Templates/ODMGuide-Excel.xlsx
+++ b/HydroServerTools/Templates/ODMGuide-Excel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="249">
   <si>
     <t>Field Name</t>
   </si>
@@ -106,25 +106,10 @@
     <t>Optional; Foreign Key</t>
   </si>
   <si>
-    <t>OffsetTypeID</t>
-  </si>
-  <si>
     <t>CensorCode</t>
   </si>
   <si>
     <t>Text (50)</t>
-  </si>
-  <si>
-    <t>QualifierID</t>
-  </si>
-  <si>
-    <t>MethodID</t>
-  </si>
-  <si>
-    <t>SourceID</t>
-  </si>
-  <si>
-    <t>SampleID</t>
   </si>
   <si>
     <t>DerivedFromID</t>
@@ -971,22 +956,10 @@
     <t>Distance from a datum or control point to the point at which a data value was observed. If not given the OffsetValue is inferred to be 0, or not relevant/necessary.</t>
   </si>
   <si>
-    <t>The integer identifier that references the measurement offset type in the OffsetTypes table.</t>
-  </si>
-  <si>
     <t>Text indication of whether the data value is censored from the CensorCode controlled vocabulary.</t>
   </si>
   <si>
     <t>Integer identifier that references the Qualifiers table. If Null, the data value is inferre to not be qualified.</t>
-  </si>
-  <si>
-    <t>Integer identifier that references method used to generate the data value in the Methods table.</t>
-  </si>
-  <si>
-    <t>Integer identifier that references the record in the Sources table giving the source of the data value.</t>
-  </si>
-  <si>
-    <t>Integer identifier that references into the Samples table. This is required only if the data value resulted from a physical sample processed in a lab.</t>
   </si>
   <si>
     <t>Integer identifier for the derived froum group of data values that the current data value is derived from. This refers to a group of derived from records in the DerivedFrom table. If Null, the data value is inferred to not be derived from another data value.</t>
@@ -1094,6 +1067,24 @@
   </si>
   <si>
     <t>4. Upload each CSV file using CUAHSI's Cloud HydroServer</t>
+  </si>
+  <si>
+    <t>OffsetTypeCode</t>
+  </si>
+  <si>
+    <t>SampleCode</t>
+  </si>
+  <si>
+    <t>Code used by the organization that collects the data to identify the OffsetType, which is defined in the OffsetTypes table.</t>
+  </si>
+  <si>
+    <t>Code used by the organization that collects the data to identify the Method, which is defined in the Methods table.</t>
+  </si>
+  <si>
+    <t>Code used by the organization that collects the data to identify the source, which is defined in the Sources table.</t>
+  </si>
+  <si>
+    <t>Code used by the organization that collects the data to identify the sampe, which is defined in the Samples table. This is required only if the data value resulted from a physical sample processed in a lab.</t>
   </si>
 </sst>
 </file>
@@ -2188,14 +2179,14 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
@@ -2212,33 +2203,33 @@
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="32" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2257,7 +2248,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -2285,7 +2276,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2299,17 +2290,17 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="7"/>
@@ -2323,7 +2314,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -2338,7 +2329,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -2352,7 +2343,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -2395,7 +2386,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2437,37 +2428,37 @@
         <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>31</v>
+        <v>244</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,10 +2481,10 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -2502,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
@@ -2520,7 +2511,7 @@
         <v>6</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,52 +2572,52 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="J4" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="M4" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="Q4" s="16" t="s">
         <v>215</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,52 +2625,52 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>7</v>
@@ -2729,7 +2720,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.75" x14ac:dyDescent="0.3">
@@ -2737,13 +2728,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2751,13 +2742,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2765,13 +2756,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
@@ -2821,10 +2812,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -2832,10 +2823,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2843,10 +2834,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2874,10 +2865,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2885,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2896,7 +2887,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>14</v>
@@ -2907,10 +2898,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2918,10 +2909,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2948,7 +2939,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
@@ -2970,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -2981,10 +2972,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2992,10 +2983,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3023,10 +3014,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3034,7 +3025,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -3045,10 +3036,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3056,10 +3047,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3067,10 +3058,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3098,10 +3089,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3109,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -3120,10 +3111,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3131,10 +3122,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3142,10 +3133,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3168,10 +3159,10 @@
   <sheetData>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -3208,10 +3199,10 @@
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -3248,10 +3239,10 @@
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -3288,10 +3279,10 @@
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -3328,10 +3319,10 @@
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
@@ -3368,10 +3359,10 @@
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -3408,10 +3399,10 @@
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -3448,10 +3439,10 @@
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
@@ -3488,10 +3479,10 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
@@ -3528,10 +3519,10 @@
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
@@ -3568,10 +3559,10 @@
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -3608,10 +3599,10 @@
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
@@ -3648,10 +3639,10 @@
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -3688,10 +3679,10 @@
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
@@ -3765,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3788,40 +3779,40 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -3829,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3847,7 +3838,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -3870,7 +3861,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -3911,40 +3902,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="I4" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -3952,37 +3943,37 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M5">
         <v>-9999</v>
@@ -4014,13 +4005,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4028,13 +4019,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4042,7 +4033,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4056,13 +4047,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4070,13 +4061,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4089,8 +4080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4117,49 +4108,49 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="P1" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -4179,7 +4170,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -4194,7 +4185,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
@@ -4209,7 +4200,7 @@
         <v>11</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -4217,16 +4208,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>22</v>
@@ -4250,10 +4241,10 @@
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
         <v>14</v>
@@ -4264,49 +4255,49 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="H4" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="I4" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="J4" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="N4" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="O4" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="P4" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -4314,46 +4305,46 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4365,7 +4356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="M1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4388,55 +4379,55 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -4444,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4453,7 +4444,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -4486,13 +4477,13 @@
         <v>13</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
         <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -4500,10 +4491,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -4512,25 +4503,25 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
@@ -4539,13 +4530,13 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
         <v>9</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
         <v>14</v>
@@ -4556,55 +4547,55 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="Q4" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -4612,57 +4603,57 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
         <v>96</v>
       </c>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="Q6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4690,13 +4681,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4707,7 +4698,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4718,13 +4709,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -4732,13 +4723,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4746,13 +4737,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4781,19 +4772,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4813,7 +4804,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4821,16 +4812,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -4841,19 +4832,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4861,19 +4852,19 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4901,13 +4892,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4915,10 +4906,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -4929,10 +4920,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -4943,13 +4934,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4957,13 +4948,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/HydroServerTools/Templates/ODMGuide-Excel.xlsx
+++ b/HydroServerTools/Templates/ODMGuide-Excel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbrazil\Documents\data formatting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="24240" windowHeight="13740" tabRatio="751"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="4350" tabRatio="751" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="30" r:id="rId1"/>
@@ -1090,7 +1095,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1873,6 +1878,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1920,7 +1928,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1953,9 +1961,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1988,6 +2013,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2166,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2385,7 +2427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -2807,7 +2849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
@@ -4080,7 +4122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
